--- a/biology/Zoologie/Caerois/Caerois.xlsx
+++ b/biology/Zoologie/Caerois/Caerois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caerois est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Morphinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre  Caerois a été décrit  par Jakob Hübner en 1819.
-Synonyme
-Arpidea Duncan, 1837;
-Hames Westwood, [1851];</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Caerois a été décrit  par Jakob Hübner en 1819.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arpidea Duncan, 1837;
+Hames Westwood, ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caerois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caerois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Caerois chorinaeus (Fabricius, 1775); présent au Surinam, en Guyana et en Guyane.
 Caerois gerdrudtus (Fabricius, 1793); présent au Costa Rica et en Équateur
